--- a/【チーム名】DB設計.xlsx
+++ b/【チーム名】DB設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatam\Desktop\授業用\システム開発Ⅰ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatam\Desktop\授業用\システム開発提出\22310013-hatanakamasato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBC800-6CAC-44CC-A74D-54D0E44A7953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234441FF-5C9E-46AC-9C6F-32A26331E4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
@@ -1332,14 +1332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>my_play</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Outcome</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勝敗</t>
     <rPh sb="0" eb="2">
       <t>ショウハイ</t>
@@ -1478,6 +1470,14 @@
     <rPh sb="0" eb="4">
       <t>ハタナカマサト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_my_play</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_outcome</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1867,6 +1867,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1878,18 +1890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2208,15 +2208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB0A14-7258-42BD-B2EA-C94DBC7118CC}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="3" max="3" width="30.4140625" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.58203125" customWidth="1"/>
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -2272,13 +2272,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2427,7 +2427,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2442,12 +2442,12 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>34</v>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>41</v>
@@ -2530,12 +2530,12 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>48</v>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>55</v>
@@ -2603,7 +2603,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="25" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>278</v>
@@ -2619,7 +2619,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L10" s="8" t="b">
         <v>1</v>
@@ -2646,11 +2646,11 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="38" t="s">
-        <v>280</v>
+      <c r="C11" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
@@ -2663,7 +2663,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L11" s="8" t="b">
         <v>1</v>
@@ -2687,10 +2687,10 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
@@ -2723,10 +2723,10 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
@@ -2739,7 +2739,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="39">
+      <c r="L13" s="35">
         <v>43862</v>
       </c>
       <c r="M13" s="9"/>
@@ -2755,10 +2755,10 @@
         <v>168</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="s">
@@ -2774,7 +2774,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -2784,18 +2784,18 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="2"/>
@@ -4757,10 +4757,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4791,10 +4791,10 @@
       <c r="B2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8736,10 +8736,10 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8770,10 +8770,10 @@
       <c r="B2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -9753,10 +9753,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9787,10 +9787,10 @@
       <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -10233,21 +10233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -10403,10 +10388,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C874D48E-1208-416F-8FEE-C5028C32DF92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10428,19 +10438,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C874D48E-1208-416F-8FEE-C5028C32DF92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d287decf-c884-4834-8617-a14e3ef844bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>